--- a/DRE/cap08-BasesDeDatos/IPT_ACRM_BD12_CompanyRelations_150407.xlsx
+++ b/DRE/cap08-BasesDeDatos/IPT_ACRM_BD12_CompanyRelations_150407.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap08-BasesDeDatos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="8310"/>
   </bookViews>
@@ -98,9 +103,6 @@
     <t>Relation</t>
   </si>
   <si>
-    <t>TB Companies Relations</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -108,13 +110,16 @@
   </si>
   <si>
     <t>Ayuda: te muestra relaciones que ya existen por si se desea modificar una existente</t>
+  </si>
+  <si>
+    <t>TB Company Relations</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -408,6 +413,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -425,18 +442,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -499,7 +504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -531,9 +536,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -565,6 +571,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -740,14 +747,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.42578125" style="13" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="13" customWidth="1"/>
@@ -759,7 +766,7 @@
     <col min="8" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="10" customFormat="1" ht="25.5">
+    <row r="1" spans="1:7" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
@@ -782,7 +789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.5">
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -799,7 +806,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="51">
+    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -813,12 +820,12 @@
         <v>21</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="25.5">
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -829,20 +836,20 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="33.75" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>22</v>
@@ -852,7 +859,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="16"/>
       <c r="C6" s="3"/>
@@ -861,7 +868,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="31.5" customHeight="1">
+    <row r="7" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="16"/>
       <c r="C7" s="3"/>
@@ -870,7 +877,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="16"/>
       <c r="C8" s="3"/>
@@ -879,7 +886,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" spans="1:7" ht="34.5" customHeight="1">
+    <row r="9" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6"/>
       <c r="B9" s="16"/>
       <c r="C9" s="3"/>
@@ -888,28 +895,28 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7" s="36" customFormat="1" ht="12.75">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-    </row>
-    <row r="11" spans="1:7">
+    <row r="10" spans="1:7" s="30" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75">
-      <c r="A12" s="27" t="s">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="27"/>
+      <c r="B12" s="31"/>
       <c r="D12" s="2"/>
       <c r="G12" s="7"/>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="63.75">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>1</v>
       </c>
@@ -919,7 +926,7 @@
       <c r="D13" s="2"/>
       <c r="G13" s="7"/>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="38.25">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
         <v>3</v>
       </c>
@@ -929,56 +936,56 @@
       <c r="D14" s="2"/>
       <c r="G14" s="7"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="12.75">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="25"/>
       <c r="B15" s="26"/>
       <c r="C15" s="22"/>
       <c r="D15" s="2"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="12.75">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="2"/>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="2:6">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
     </row>
-    <row r="18" spans="2:6" ht="15" customHeight="1">
-      <c r="B18" s="28" t="s">
+    <row r="18" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-    </row>
-    <row r="19" spans="2:6" ht="123.75" customHeight="1">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+    </row>
+    <row r="19" spans="2:6" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="16" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-    </row>
-    <row r="20" spans="2:6" ht="39.75" customHeight="1">
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+    </row>
+    <row r="20" spans="2:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23" t="s">
         <v>20</v>
       </c>
       <c r="C20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="32"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
